--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -451,995 +451,1345 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>327.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.4850</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>005911</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>广发双擎升级混合A</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>195.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
         <is>
           <t>94.03</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.92</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.6122</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
         <is>
           <t>162703</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>广发小盘成长混合(LOF)A</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>162.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>94.42</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.9060</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>146.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.1809</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>82.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.2342</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.9684</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>105.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.8522</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>008120</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>万家自主创新混合A</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.7714</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2704</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>35.99</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>74.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.2704</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1874</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>18.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1052</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.0512</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.49</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9134</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8666</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213006</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5232</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4382</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3605</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>50.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2765</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2314</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
         <is>
           <t>008121</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>万家自主创新混合C</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
         <is>
           <t>92.12</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>6.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2310</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1535</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1403</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1356</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>61.57</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>008633</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>万家科技创新混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008634</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家科技创新混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>90.77</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>5.87</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008638</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发科技创新混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>200011</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城景气行业龙头灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009132</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>广发小盘成长混合(LOF)C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000241</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>宝盈核心优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009314</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发双擎升级混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>94.03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>257070</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>国联安优选行业混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>93.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>540010</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>汇丰晋信科技先锋股票</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>94.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000241</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000870</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>嘉实新收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>213006</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>宝盈核心优势灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>78.41</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>512480</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>960024</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合H</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>070001</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>嘉实成长收益混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>74.37</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.53</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005313</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005314</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>万家中证1000指数增强C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>320007</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>诺安成长混合</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>92.57</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>6.25</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001648</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信新价值灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>61.57</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1.77</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>200011</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>长城景气行业龙头灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>79.92</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003745</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>94.82</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>001956</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>国联安科技动力股票</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>002560</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>诺安和鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>94.68</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>6.37</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002863</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>金信深圳成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.86</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002939</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>广发创新升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>4.91</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161914</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161915</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>万家创业板2年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>88.38</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>007872</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>金信稳健策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>89.87</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>5.64</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>200001</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>长城久恒灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>94.76</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>501096</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>50.14</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>005311</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>005312</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>万家经济新动能混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>93.58</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161903</t>
+          <t>320007</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家行业优选混合 (LOF)</t>
+          <t>诺安成长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.86</t>
+          <t>271.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.91</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17.9739</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>162703</t>
+          <t>161903</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)A</t>
+          <t>万家行业优选混合 (LOF)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>165.10</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>87.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.7574</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009132</t>
+          <t>005911</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发小盘成长混合(LOF)C</t>
+          <t>广发双擎升级混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90.84</t>
+          <t>158.84</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.4185</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1574,25 +1964,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>162703</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>广发小盘成长混合(LOF)A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.34</t>
+          <t>135.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9309</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320022</t>
+          <t>002939</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安研究精选股票</t>
+          <t>广发创新升级灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>132.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.2957</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960024</t>
+          <t>002560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>嘉实成长收益混合H</t>
+          <t>诺安和鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>58.30</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.5882</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001849</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源强势共识100强等权重股票</t>
+          <t>国联安中证全指半导体产品与设备ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.24</t>
+          <t>95.38</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.96</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.5863</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>501096</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>50.51</t>
+          <t>55.44</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4761</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161914</t>
+          <t>008120</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合A</t>
+          <t>万家自主创新混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>8.46</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3135</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -1742,25 +2192,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161915</t>
+          <t>161914</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>万家创业板2年定期开放混合C</t>
+          <t>万家创业板2年定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>94.05</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>8.46</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4737</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>257070</t>
+          <t>070001</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国联安优选行业混合</t>
+          <t>嘉实成长收益混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>31.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>6</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1154</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>290011</t>
+          <t>005311</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰信中小盘精选混合</t>
+          <t>万家经济新动能混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.73</t>
+          <t>15.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>8.13</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>6</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9257</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>320007</t>
+          <t>290011</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>诺安成长混合</t>
+          <t>泰信中小盘精选混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>9.96</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>94.73</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8097</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>000823</t>
+          <t>257070</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>银华高端制造业灵活配置混合</t>
+          <t>国联安优选行业混合</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>90.48</t>
+          <t>13.49</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>010307</t>
+          <t>001956</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合A</t>
+          <t>国联安科技动力股票</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>11.56</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>4</v>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6901</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="17">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>010308</t>
+          <t>005312</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>西藏东财信息产业精选混合C</t>
+          <t>万家经济新动能混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>90.52</t>
+          <t>8.73</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5151</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010570</t>
+          <t>540010</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>新沃创新领航混合A</t>
+          <t>汇丰晋信科技先锋股票</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4704</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010571</t>
+          <t>008633</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>新沃创新领航混合C</t>
+          <t>万家科技创新混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>73.77</t>
+          <t>5.52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.37</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4703</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>320022</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>国联安中证全指半导体产品与设备ETF</t>
+          <t>诺安研究精选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>98.65</t>
+          <t>10.03</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>10</v>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3751</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>070001</t>
+          <t>009314</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>嘉实成长收益混合A</t>
+          <t>广发双擎升级混合C</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>72.70</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>8</v>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001637</t>
+          <t>008121</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>嘉实腾讯自选股大数据策略股票</t>
+          <t>万家自主创新混合C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>89.73</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>3</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>001956</t>
+          <t>161915</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国联安科技动力股票</t>
+          <t>万家创业板2年定期开放混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>93.16</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>7</v>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>001970</t>
+          <t>501096</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合A</t>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>7</v>
+          <t>50.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2134</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>002580</t>
+          <t>008634</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>泰信鑫选灵活配置混合C</t>
+          <t>万家科技创新混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>92.64</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>7</v>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1968</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -2162,26 +2762,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>540010</t>
+          <t>009132</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>汇丰晋信科技先锋股票</t>
+          <t>广发小盘成长混合(LOF)C</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>94.11</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>6</v>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1475</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>000823</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>银华高端制造业灵活配置混合</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>2.70</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>3</v>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>002145</t>
+          <t>002067</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺安景鑫灵活配置混合</t>
+          <t>诺安精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>60.30</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>1</v>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2246,26 +2876,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>008633</t>
+          <t>010570</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>万家科技创新混合A</t>
+          <t>新沃创新领航混合A</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>3</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>008634</t>
+          <t>010571</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>万家科技创新混合C</t>
+          <t>新沃创新领航混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.02</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>8.52</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>3</v>
+          <t>73.77</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="31">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>002560</t>
+          <t>001637</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>诺安和鑫灵活配置混合</t>
+          <t>嘉实腾讯自选股大数据策略股票</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.24</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>7.87</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>6</v>
+          <t>89.73</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>002564</t>
+          <t>010307</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>新沃通盈灵活配置混合</t>
+          <t>西藏东财信息产业精选混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>92.62</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="33">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005311</t>
+          <t>001970</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>万家经济新动能混合A</t>
+          <t>泰信鑫选灵活配置混合A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>005312</t>
+          <t>002145</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>万家经济新动能混合C</t>
+          <t>诺安景鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>5.90</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
+          <t>60.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2424,15 +3114,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>94.95</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>2.54</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>005911</t>
+          <t>010308</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发双擎升级混合A</t>
+          <t>西藏东财信息产业精选混合C</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>7</v>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="37">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>009314</t>
+          <t>002564</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>广发双擎升级混合C</t>
+          <t>新沃通盈灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>93.95</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5.30</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>7</v>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="38">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>002939</t>
+          <t>001849</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>广发创新升级灵活配置混合</t>
+          <t>前海开源强势共识100强等权重股票</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>93.09</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>4.74</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>9</v>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="39">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>008120</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>万家自主创新混合A</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>7</v>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="40">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>008121</t>
+          <t>960024</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>万家自主创新混合C</t>
+          <t>嘉实成长收益混合H</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>94.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>6.91</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>7</v>
+          <t>72.70</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2582,26 +3332,30 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>002580</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>94.31</t>
-        </is>
-      </c>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>6.27</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>6</v>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3340,7 +3341,6 @@
           <t>泰信鑫选灵活配置混合C</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>92.64</t>
@@ -3356,6 +3356,3972 @@
       </c>
       <c r="H41" t="n">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281.77</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>29.4450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.55</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.1650</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>173.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.8120</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>147.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>11.3685</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.3204</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>232.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>9.8741</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>70.88</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>7.5204</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.8478</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.6960</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>138.89</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.6945</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>98.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>3.8746</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>36.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.3718</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>91.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.2446</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>73.27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.8795</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.9369</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.76</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.9132</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>36.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.8262</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>30.90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7211</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.08</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.5167</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.5159</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>40.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5155</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>38.31</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.69</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4366</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.83</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.2856</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.2749</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.28</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.72</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.1355</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>30.11</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1231</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>17.71</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1175</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.1017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.8659</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.8463</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8416</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>360006</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>光大保德信新增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8339</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6774</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6756</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008638</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发科技创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5641</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>12.01</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5404</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5148</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>24.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4948</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4854</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>48.50</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4404</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3640</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3478</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3328</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>51.66</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2906</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2785</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2370</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2315</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>002597</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>兴业成长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1339</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010676</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>光大保德信新机遇混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>66.02</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1263</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1251</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>002594</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信现代服务业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>30.10</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0984</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0962</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>30.08</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001411</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>005090</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>163209</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>83.74</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>82.38</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001339</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>兴银鼎新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>005091</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉合睿金定期开放灵活配置混合型发起式C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.24</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>002051</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>诺安创新驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>81.81</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>10.43</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>002334</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>74.38</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>002335</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇丰晋信大盘波动精选股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010356</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺安创业板指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7327,4 +7328,6480 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H170"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>253.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.0042</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>145.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.5067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.0072</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>158.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.8430</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>120.98</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>12.5456</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12.3952</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>142.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11.0937</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>164.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>7.2734</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>111.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.8474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.8338</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>120.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>5.4534</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>5.1429</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>83.64</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.9849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.7274</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>4.5496</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>38.73</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.8343</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>58.57</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.6021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>37.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.7729</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.4025</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>74.33</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.4025</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.3634</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.9966</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.9382</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>19.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8189</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.8060</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>25.39</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6935</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6779</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6517</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>24.65</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.4396</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>23.61</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3458</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2960</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.58</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2059</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>290011</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰信中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.1647</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.1335</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1098</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9985</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.94</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9496</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>481010</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>工银瑞信中小盘混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>24.70</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9411</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.8921</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>18.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8896</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>18.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>25.00</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8800</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>32.96</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8405</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>18.99</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8280</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>13.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>78.83</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8272</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.70</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6553</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6283</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001404</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商移动互联网产业股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>12.77</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.44</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6079</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5972</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>13.24</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5826</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5624</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>9.20</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5603</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5502</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5345</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>481015</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银主题策略混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>14.27</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5251</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.11</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5070</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>519672</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银河蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5062</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4996</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.54</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>10.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4958</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>49.41</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.4707</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>87.67</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>151001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>银河稳健混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>74.80</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4551</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4348</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>51.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4263</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>14.13</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4225</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3816</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>009057</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>博时科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3342</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001970</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.61</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2652</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2645</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2623</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2608</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>002580</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰信鑫选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2381</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8.11</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>12.27</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>78.93</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2098</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2043</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>001716</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>481006</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银红利混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1802</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>009058</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1796</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>91.99</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1788</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1650</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1641</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.63</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1631</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1325</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>27.83</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1298</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1262</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005211</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>银河智慧主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1090</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1084</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1059</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1036</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1021</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>28.73</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0975</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0870</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0834</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000522</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华润元大信息传媒科技混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0797</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007126</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>博道远航混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001105</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>信达澳银转型创新股票</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0697</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>229002</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰达宏利逆向策略混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>002861</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银瑞信智能制造股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>70.87</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0521</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>007127</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>博道远航混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>87.87</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>001997</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银新趋势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>76.87</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>162205</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>泰达宏利风险预算混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>31.65</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0377</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>000507</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.81</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>84.80</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>78.53</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>002863</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>金信深圳成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>92.61</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.57</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>166109</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>77.43</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>000508</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>泰达宏利宏达混合B</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>24.33</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>76.33</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005179</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>57.67</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>166110</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>信达澳银量化先锋混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>70.44</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13804,4 +13805,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>169</v>
+      </c>
+      <c r="D2" t="n">
+        <v>216.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>103</v>
+      </c>
+      <c r="D3" t="n">
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>40</v>
+      </c>
+      <c r="D4" t="n">
+        <v>72.84999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13813,7 +13814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13824,17 +13825,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -13844,14 +13865,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>169</v>
-      </c>
-      <c r="D2" t="n">
-        <v>216.77</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>274.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>23.2146</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -13860,14 +13903,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>103</v>
-      </c>
-      <c r="D3" t="n">
-        <v>164.52</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>179.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>14.3169</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -13876,14 +13941,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>40</v>
-      </c>
-      <c r="D4" t="n">
-        <v>72.84999999999999</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>13.4432</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -13892,13 +13979,5659 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>12.6162</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.7992</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>134.23</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.4028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>138.99</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>10.2992</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>106.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>6.2580</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>175.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>6.1790</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>5.3255</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.6265</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.36</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.9282</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.7110</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>121.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.6596</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40.72</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.5630</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.3830</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>99.91</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.3270</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>55.19</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.2893</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>72.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.6561</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.6264</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>29.80</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.3423</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>28.61</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.2316</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.0004</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>33.68</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.8322</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6476</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>33.14</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>74.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6437</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5968</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5722</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5348</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1434</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010326</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博时消费创新混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>24.23</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1122</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010699</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>东方红创新趋势混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>35.53</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>76.40</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.0695</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0198</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.9614</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>34.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.9432</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.9273</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.8623</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>18.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.8254</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.7996</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>020003</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰金龙行业混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>13.19</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>82.54</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.7874</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.05</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.7597</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.60</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.7135</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6898</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>19.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.76</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.6866</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.6753</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>11.69</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.6745</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.6603</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>21.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.57</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.6140</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010755</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博道睿见一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6122</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5520</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5513</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.5243</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5222</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001043</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5147</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4860</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.68</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4731</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>9.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4158</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4063</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4014</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.3935</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.46</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3824</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3802</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>26.05</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>57.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3777</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>012200</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3416</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>10.36</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012178</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>银华富饶精选三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>13.12</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>75.58</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3096</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>75.02</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3072</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>87.30</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2791</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.2779</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.2695</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2672</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2560</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>78.71</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2309</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2148</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2109</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>12.21</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2015</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1910</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1769</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1675</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>010327</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时消费创新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1533</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>68.02</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1295</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1239</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005121</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国兴利增强债券</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000965</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>汇丰晋信新动力混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1118</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>9.16</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000826</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000827</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>广发中证百度百发策略100指数E</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1052</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>29.75</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0927</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0768</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0765</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0702</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>010570</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004951</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信价值优利混合</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0518</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>013067</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富安达中小盘六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>49.38</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0517</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>001223</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>鹏华文化传媒娱乐股票</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>011478</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>工银美丽城镇主题股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>85.92</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>91.80</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0359</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012201</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新华鑫科技3个月滚动持有灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010571</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>新沃创新领航混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>560006</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>益民核心增长混合</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>95.97</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>55.37</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006195</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>国金量化多因子股票</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>75.07</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>149</v>
+      </c>
+      <c r="D2" t="n">
+        <v>196.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>169</v>
+      </c>
+      <c r="D3" t="n">
+        <v>216.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>103</v>
+      </c>
+      <c r="D4" t="n">
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>40</v>
+      </c>
+      <c r="D5" t="n">
+        <v>72.84999999999999</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>72.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19530,7 +19531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19541,17 +19542,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -19561,14 +19582,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>149</v>
-      </c>
-      <c r="D2" t="n">
-        <v>196.87</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>246.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>24.5422</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -19577,14 +19620,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>169</v>
-      </c>
-      <c r="D3" t="n">
-        <v>216.77</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>171.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.7351</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -19593,14 +19658,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>103</v>
-      </c>
-      <c r="D4" t="n">
-        <v>164.52</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>14.2155</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -19609,14 +19696,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>40</v>
-      </c>
-      <c r="D5" t="n">
-        <v>72.84999999999999</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>139.02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>13.8325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -19625,13 +19734,8597 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>10.3152</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>112.51</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>10.0809</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>9.5212</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159995</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>175.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>8.4290</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>81.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.7619</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>69.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.9011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>115.23</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.80</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.8051</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100.86</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.5891</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>63.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>4.2266</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>4.0453</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.6858</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>33.85</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.3444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>50.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.2723</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.2662</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>42.72</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>3.0288</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>53.28</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>3.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>31.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.9375</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>49.87</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.8027</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2.6114</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>73.43</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2.5774</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>24.07</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2.1543</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>22.02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.9840</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.46</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.6628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.6606</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.47</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.6335</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.74</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.4032</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.3721</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.3584</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>501206</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富创新未来18个月封闭运作混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>64.18</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>60.11</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2964</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2913</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011304</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>44.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.2229</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001409</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信互联网加股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>34.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.35</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0277</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>27.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9970</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>004450</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>嘉实前沿科技沪港深股票</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>21.72</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9796</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9790</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>24.17</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>83.18</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9499</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.9415</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>000263</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>27.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.9415</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.9242</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.9092</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.8734</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.8481</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001513</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>易方达信息产业混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.8352</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.8319</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159801</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>17.17</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.8139</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.98</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.7974</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.7195</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>19.26</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.7088</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009993</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实前沿创新混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6496</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>481004</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6087</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5680</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>19.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>10.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5549</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5494</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5488</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5233</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>159813</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华国证半导体芯片ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4859</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4838</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>76.37</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4608</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009683</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>18.11</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4401</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4038</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>20.22</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>54.13</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3910</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3736</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3642</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3612</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3505</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3417</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3371</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3177</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>62.14</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3029</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012456</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2933</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2911</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>005812</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>鹏华产业精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>42.95</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>000854</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏华养老产业股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>81.68</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2698</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>610002</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>信达澳银精华配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>18.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>71.31</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2638</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2582</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>487021</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信优质精选混合</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>76.00</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.2438</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>006696</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富3年封闭运作研究优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>63.80</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2421</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2401</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2306</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2292</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8.37</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2268</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>99.14</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2120</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.20</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1990</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1944</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>010237</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1886</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>588360</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>国泰中证科创创业50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1866</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>560800</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏扬中证数字经济主题ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1806</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1773</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005409</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1705</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1670</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>007731</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1609</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011748</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002227</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长城新优选混合A</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1560</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>51.48</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1532</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010238</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>安信创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1384</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000763</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>工银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1259</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>850588</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>63.76</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1109</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>360011</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>光大保德信动态优选混合</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>71.83</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1061</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>002000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>工银瑞信新生利混合</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>28.70</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0996</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>004314</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>011474</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>工银瑞信信息产业混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0915</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0900</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>900029</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0844</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0838</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>95.40</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0769</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009246</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫ESG量化先行混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>92.17</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.20</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005943</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0704</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>206012</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>鹏华价值精选股票</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>87.78</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>7.91</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>80.03</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0652</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>010797</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0622</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005944</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>工银瑞信聚福混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>28.75</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>004315</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>前海开源沪港深新硬件主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011599</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>国联安匠心科技1个月滚动持有混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>487016</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>89.33</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0473</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>009684</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>汇添富创新增长一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>71.21</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>002228</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>长城新优选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>22.11</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011305</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>工银瑞信创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0442</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0435</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>011277</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>上银科技驱动双周定期可赎回混合</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>900030</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>中信证券量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>012457</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>鹏扬数字经济先锋混合C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>82.44</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>010194</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>010799</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>88.24</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>71.47</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>69.85</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>91.47</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>002003</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010032</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华泰柏瑞战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0303</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>002004</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>工银瑞信新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>159810</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>浦银安盛创业板ETF</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>96.39</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>89.77</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>97.73</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>001135</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>益民品质升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011359</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>004890</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>中邮健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>81.43</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>工银瑞信新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>82.08</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>23.55</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>007133</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>005088</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>850005</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>159836</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>天弘创业板300交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>007732</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>民生加银持续成长混合C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>165522</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>信诚中证TMT产业主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H207" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H208" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>011749</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气成长混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H209" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>010798</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>长城优选回报六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>37.08</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H210" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H211" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>95.87</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H212" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>73.65</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H213" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H214" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>850599</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>海通核心优势一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>81.30</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H215" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>010749</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H216" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>005167</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>嘉实润泽量化一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>27.26</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H217" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H218" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>011360</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>长城优选添利一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H219" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>007134</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>嘉实长青竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H220" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>72.54</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H222" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>010800</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>长城优选稳进六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>37.25</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H223" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>010750</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>浙商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H224" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>005089</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>嘉实新添辉定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>54.62</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>960023</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>工银稳健成长混合H</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>69.96</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>001428</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>工银瑞信灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>73.70</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>010195</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>博时睿祥15个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>227</v>
+      </c>
+      <c r="D2" t="n">
+        <v>222.21</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>149</v>
+      </c>
+      <c r="D3" t="n">
+        <v>196.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>169</v>
+      </c>
+      <c r="D4" t="n">
+        <v>216.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>103</v>
+      </c>
+      <c r="D5" t="n">
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.84999999999999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>72.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28207,7 +28208,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28218,17 +28219,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -28238,14 +28259,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>227</v>
-      </c>
-      <c r="D2" t="n">
-        <v>222.21</v>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>266.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20.5097</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -28254,14 +28297,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>149</v>
-      </c>
-      <c r="D3" t="n">
-        <v>196.87</v>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>166.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>13.3242</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -28270,14 +28335,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>169</v>
-      </c>
-      <c r="D4" t="n">
-        <v>216.77</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>12.3479</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -28286,14 +28373,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>103</v>
-      </c>
-      <c r="D5" t="n">
-        <v>164.52</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.8818</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -28302,14 +28411,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>40</v>
-      </c>
-      <c r="D6" t="n">
-        <v>72.84999999999999</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>8.4252</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -28318,13 +28449,5955 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.8154</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>万家行业优选混合 (LOF)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>101.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.9780</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.24</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.4581</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.3874</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>71.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.1766</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>125.71</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0856</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安中证全指半导体产品与设备ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>109.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.0117</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.3702</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.2528</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>46.58</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.0230</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.7988</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.2444</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>26.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.8035</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>72.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7873</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010557</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>汇添富数字生活主题六个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>54.77</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.81</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6595</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011399</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>50.63</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5341</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>18.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.5167</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159967</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华夏创业板动量成长ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>34.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.4650</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.4575</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.96</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.3534</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>19.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.3207</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.2986</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>16.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.2734</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.87</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.1472</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000697</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富移动互联股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>24.28</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9081</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>160325</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>29.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.18</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8357</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>19.44</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7718</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16.34</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7304</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7226</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>012650</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.6214</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>257070</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国联安优选行业混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6034</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011486</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>博时创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.31</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.5926</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.87</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.5300</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新3年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>12.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.5090</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001956</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国联安科技动力股票</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4913</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.26</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4552</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.18</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4544</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.4148</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>18.56</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>80.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3850</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012082</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3691</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011189</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>建信智汇优选一年持有期混合（MOM）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.23</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>53.72</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.3268</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.3225</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.3129</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.3001</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001879</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014418</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2887</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>67.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2733</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>012651</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时半导体主题混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>8.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>050022</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>博时回报混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.10</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>501096</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国联安科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>79.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.2460</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>006928</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>长城创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.2398</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.2355</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.2244</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.2143</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银量化策略混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1920</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1905</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1884</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011400</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>汇添富数字未来混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1879</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>014036</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>博时成长回报混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1872</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014232</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1653</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014233</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>博时专精特新主题混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1611</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1518</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>050018</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>博时行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1405</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>014419</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>西部利得CES半导体芯片行业指数增强C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>164826</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001496</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>工银瑞信聚焦30股票</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>83.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1337</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1309</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1140</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>71.93</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1029</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>79.96</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0869</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>62.90</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0811</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>007685</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华商电子行业量化股票</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0724</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0714</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011487</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>博时创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0655</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>159758</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>华夏中证红利质量ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>516800</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华宝中证智能制造主题ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>160645</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>鹏华精选回报三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014193</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0484</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>工银瑞信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>014037</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时成长回报混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银瑞信优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>012083</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>博时数字经济 18 个月封闭运作混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>91.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>98.14</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014194</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业指数增强C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>005373</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>009194</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>001648</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>79.81</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>010889</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信创业板两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>72.52</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>69.81</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>001198</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>005095</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>561600</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>平安中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>002163</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>东方惠新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>信达澳银领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>009195</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>泰达宏利中证申万绩优策略指数增强C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>005374</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>中加紫金灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>23.92</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>012237</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>工银瑞信新价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>005096</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>国泰量化成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>78.56</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005627</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>013153</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>158</v>
+      </c>
+      <c r="D2" t="n">
+        <v>155.39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>227</v>
+      </c>
+      <c r="D3" t="n">
+        <v>222.21</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>149</v>
+      </c>
+      <c r="D4" t="n">
+        <v>196.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>169</v>
+      </c>
+      <c r="D5" t="n">
+        <v>216.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>103</v>
+      </c>
+      <c r="D6" t="n">
+        <v>164.52</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" t="n">
+        <v>72.84999999999999</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>72.08</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
+++ b/数据整理/stocks/A股/创业板/300661-圣邦股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="D2" t="n">
-        <v>155.39</v>
+        <v>141.98</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>227</v>
+        <v>158</v>
       </c>
       <c r="D3" t="n">
-        <v>222.21</v>
+        <v>155.39</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>149</v>
+        <v>227</v>
       </c>
       <c r="D4" t="n">
-        <v>196.87</v>
+        <v>222.21</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="D5" t="n">
-        <v>216.77</v>
+        <v>196.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="D6" t="n">
-        <v>164.52</v>
+        <v>216.77</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>72.84999999999999</v>
+        <v>164.52</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>40</v>
+      </c>
+      <c r="D8" t="n">
+        <v>72.84999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>72.08</v>
       </c>
     </row>
@@ -600,6 +617,4848 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H127"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>320007</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安成长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>239.83</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>21.9205</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519674</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>142.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>12.2348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.1653</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012967</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>112.21</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>9.3022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.5190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>102.91</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>7.1934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>84.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.4873</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161903</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家行业优选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>83.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.6349</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>76.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.5078</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>60.62</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.4859</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>55.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.2608</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512480</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国联安半导体ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>122.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.1331</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512760</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰CES半导体行业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>112.53</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.5109</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>40.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.9229</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>35.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.17</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.6109</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.5965</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002560</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安和鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>32.70</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.9882</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014143</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>银河创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7435</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>74.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.6153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>40.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6121</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008120</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>万家自主创新混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5385</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>960024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合H</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.3951</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>070001</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实成长收益混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>22.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>72.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3945</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3084</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011665</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>65.89</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2914</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>070099</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>嘉实优质企业混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0237</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012968</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发行业严选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8704</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010275</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.8296</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005311</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7349</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161914</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.30</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5891</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008150</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>嘉实远见企业精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5654</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5644</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002387</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>工银沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014855</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.5506</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009086</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>鹏华价值共赢两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4584</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4454</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007353</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3938</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005312</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>万家经济新动能混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3921</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000793</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>工银高端制造行业股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3696</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008418</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.27</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3338</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>540010</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇丰晋信科技先锋股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3336</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>011805</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3284</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010088</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银优质成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>15.38</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.3276</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3104</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3056</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>610001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3016</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001042</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华夏领先股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2929</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>013840</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>银华集成电路混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2874</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>013427</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>79.09</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2606</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2481</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516640</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2456</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000870</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实新收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2422</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2363</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009596</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2198</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008716</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鹏华优质回报两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>66.94</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2176</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>320022</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安研究精选股票</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>013841</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>银华集成电路混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2029</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008633</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>万家科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>159966</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏创业板低波蓝筹ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1657</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>217021</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>招商优势企业混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1600</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>481017</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>206007</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>鹏华消费优选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>83.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1597</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>001188</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>鹏华改革红利股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1583</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008121</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>万家自主创新混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1508</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>012294</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>泰康优势精选三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1352</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008634</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>万家科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012553</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>161915</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>万家创业板2年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1154</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>516920</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0843</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>009597</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>泰康创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008531</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>惠升惠民混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0816</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>011077</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>汇丰晋信创新先锋股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>014854</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>嘉实中证半导体指数增强A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011666</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富数字经济引领发展三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>59.90</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010276</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>嘉实优质精选混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006366</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>兴业安保优选混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>87.20</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009867</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0486</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>561100</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>富国中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008532</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>惠升惠民混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>516350</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证芯片产业ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>98.94</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012838</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>013446</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>007512</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008419</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>惠升惠泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>77.30</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0355</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>013445</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>001715</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>159732</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>华夏国证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003053</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>003070</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>012320</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>000667</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合A</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>561310</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>国泰中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015456</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信澳领先增长混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010089</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>工银优质成长混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>69.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>015337</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0221</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>012552</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>天弘中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>012319</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>西藏东财国证消费电子主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001998</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>工银新焦点灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>83.76</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>562950</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>易方达中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003069</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信创业板量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>159779</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商中证消费电子主题ETF</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001574</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中海混改红利主题精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>6.11</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009868</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>工银瑞信创新精选一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>79.03</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159773</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>97.11</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>012837</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华安CES半导体芯片行业指数A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>003054</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实文体娱乐股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011806</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>嘉实优质核心两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>159733</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>景顺中证消费电子ETF</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>013903</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国泰君安信息行业混合</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>71.75</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>006801</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>000672</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>工银绝对收益策略混合B</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>006802</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>新疆前海联合科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>78.21</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015336</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>嘉实中证芯片产业指数A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>159777</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>国联安创业板科技ETF</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>010668</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>60.25</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>012241</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>工银量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>010669</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>工银瑞信优选对冲策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6655,7 +11514,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15331,7 +20190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -21047,7 +25906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -27523,7 +32382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31489,7 +36348,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -33058,7 +37917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
